--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F100C-E2D6-4D1D-970B-6328228E485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989D67D-7A97-4897-BBD0-9E58DC579EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="10524" yWindow="4236" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="0" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <x:workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="0" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="External - PT" sheetId="14" r:id="rId1"/>
-    <x:sheet name="Area Source" sheetId="1" r:id="rId2"/>
-    <x:sheet name="Area - PT" sheetId="8" r:id="rId3"/>
-    <x:sheet name="Table Source" sheetId="3" r:id="rId4"/>
-    <x:sheet name="Table - PT" sheetId="9" r:id="rId5"/>
-    <x:sheet name="Defined Name Source" sheetId="4" r:id="rId6"/>
-    <x:sheet name="Defined Name - PT" sheetId="10" r:id="rId7"/>
+    <x:sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
+    <x:sheet name="External Workbook - PT" sheetId="14" r:id="rId2"/>
+    <x:sheet name="Area Source" sheetId="1" r:id="rId3"/>
+    <x:sheet name="Area - PT" sheetId="8" r:id="rId4"/>
+    <x:sheet name="Table Source" sheetId="3" r:id="rId5"/>
+    <x:sheet name="Table - PT" sheetId="9" r:id="rId6"/>
+    <x:sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
+    <x:sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId11"/>
-    <x:pivotCache cacheId="1" r:id="rId8"/>
+    <x:pivotCache cacheId="0" r:id="rId13"/>
+    <x:pivotCache cacheId="1" r:id="rId12"/>
     <x:pivotCache cacheId="2" r:id="rId9"/>
     <x:pivotCache cacheId="3" r:id="rId10"/>
+    <x:pivotCache cacheId="4" r:id="rId11"/>
   </x:pivotCaches>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,8 +50,22 @@
 </x:workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<x:connections xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr16">
+  <x:connection id="1" sourceFile="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\PivotTable-AllSources-external-data.xlsx" keepAlive="1" name="PivotTable-AllSources-external-data" type="5" refreshedVersion="8" background="1" xr16:uid="{C541E7EC-78CE-4C7D-AB77-2894390EA7AF}">
+    <x:dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\PivotTable-AllSources-external-data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Sheet1$" commandType="3"/>
+  </x:connection>
+</x:connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Pivot table that is using a connection to another workbook as a source of pivot cache. Connection uses absolute path, so it is necessary to update the path (Pivot Table Analyze - Change Data Source - Connection Properties - Definition).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pivot table that uses external workbook reference as a source of data for the pivot cache.</x:t>
+  </x:si>
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -58,6 +74,15 @@
   </x:si>
   <x:si>
     <x:t>Cake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pivot table that uses area in 'Area Source' sheet as a source of data for the pivot cache.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pivot table that uses a table named 'Table1' as a source of data for the pivot cache.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pivot table that uses a defined name 'AreaName' as a source of data for the pivot cache.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -331,6 +356,31 @@
 </x:pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheDefinition xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy="Jan Havlíček" refreshedDate="45640.820318865743" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{08AFD5F3-EF3C-4277-9EC0-BC5F6E36BD65}" mc:Ignorable="xr">
+  <x:cacheSource type="external" connectionId="1"/>
+  <x:cacheFields count="2">
+    <x:cacheField name="Name">
+      <x:sharedItems count="2">
+        <x:s v="Cake"/>
+        <x:s v="Muffin"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Value">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="16" count="2">
+        <x:n v="15"/>
+        <x:n v="16"/>
+      </x:sharedItems>
+    </x:cacheField>
+  </x:cacheFields>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </x:ext>
+  </x:extLst>
+</x:pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
   <r>
@@ -371,8 +421,21 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -404,7 +467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -420,7 +483,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -742,18 +821,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{157D16F0-CB70-40FE-8801-5E78DDAC6F12}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5DF7487B-601B-4CF1-83DA-637CE4ACBFAA}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A3:C20"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -763,6 +846,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{157D16F0-CB70-40FE-8801-5E78DDAC6F12}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C20"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{7B95AC8F-0A2B-4305-8907-61BCB849A9DA}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -775,15 +885,15 @@
   <x:sheetData>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D3" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D4" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>1</x:v>
@@ -798,19 +908,23 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{BF5682F4-C374-4D89-9ECF-B07973C4759C}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A3:C20"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -819,7 +933,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A96ED509-A698-481D-9229-D61A1CAE8227}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -834,15 +948,15 @@
   <x:sheetData>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="B2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>1</x:v>
@@ -859,19 +973,23 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{076680DD-97CF-4D98-B4D1-7E5361715DFA}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A3:C20"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -880,7 +998,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{388DAB8D-43FF-4D7B-9586-E2AB978B4CFD}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -895,15 +1013,15 @@
   <x:sheetData>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="B2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>1</x:v>
@@ -918,19 +1036,25 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{93B5D2A0-EF2B-4557-801E-486063C03CDD}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A3:C20"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
+      <x:selection activeCell="C7" sqref="C7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989D67D-7A97-4897-BBD0-9E58DC579EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C103D15-3D13-4E6D-8F54-B3C22D3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="0" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <x:workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="9" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
@@ -21,17 +21,20 @@
     <x:sheet name="Table - PT" sheetId="9" r:id="rId6"/>
     <x:sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
     <x:sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
+    <x:sheet name="Scenario" sheetId="16" r:id="rId9"/>
+    <x:sheet name="Scenario PivotTable" sheetId="17" r:id="rId10"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId13"/>
-    <x:pivotCache cacheId="1" r:id="rId12"/>
-    <x:pivotCache cacheId="2" r:id="rId9"/>
-    <x:pivotCache cacheId="3" r:id="rId10"/>
-    <x:pivotCache cacheId="4" r:id="rId11"/>
+    <x:pivotCache cacheId="0" r:id="rId15"/>
+    <x:pivotCache cacheId="1" r:id="rId14"/>
+    <x:pivotCache cacheId="2" r:id="rId11"/>
+    <x:pivotCache cacheId="3" r:id="rId12"/>
+    <x:pivotCache cacheId="4" r:id="rId13"/>
+    <x:pivotCache cacheId="5" r:id="rId16"/>
   </x:pivotCaches>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -83,6 +86,18 @@
   </x:si>
   <x:si>
     <x:t>Pivot table that uses a defined name 'AreaName' as a source of data for the pivot cache.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total with tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$B$2:$B$3 by</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(All)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -238,7 +253,7 @@
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -249,6 +264,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,6 +401,36 @@
 </x:pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheDefinition xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" saveData="0" refreshOnLoad="1" refreshedBy="Jan Havlíček" refreshedDate="45640.931218171296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{9BD42A5F-5A0C-417E-AEDF-DBA25499EC16}" mc:Ignorable="xr">
+  <x:cacheSource type="scenario"/>
+  <x:cacheFields count="3">
+    <x:cacheField name="$B$2:$B$3">
+      <x:sharedItems count="2">
+        <x:s v="Original"/>
+        <x:s v="Expensive"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="$B$2:$B$3 by">
+      <x:sharedItems count="1">
+        <x:s v="Jan Havlíček"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="res $B$5">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.25" maxValue="151.25" count="2">
+        <x:n v="30.25"/>
+        <x:n v="151.25"/>
+      </x:sharedItems>
+    </x:cacheField>
+  </x:cacheFields>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </x:ext>
+  </x:extLst>
+</x:pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
   <r>
@@ -432,6 +482,10 @@
     <x v="1"/>
   </r>
 </pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr"/>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,6 +559,53 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="$B$5" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -827,13 +928,45 @@
   </x:sheetPr>
   <x:dimension ref="A1:C20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{ECC5C1F4-162A-4495-BD7F-5FACEE21B0F8}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B5"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1061,4 +1194,60 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{EBB5288C-1114-45E0-9330-28F95507E82B}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A2:B5"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B5" sqref="B5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0">
+        <x:f>(B2+B3)*1.21</x:f>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:scenarios current="0" show="0" sqref="B5">
+    <x:scenario name="Original" locked="1" count="2" user="Jan Havlíček" comment="Created by Jan Havlíček on 12/14/2024">
+      <x:inputCells r="B2" val="10"/>
+      <x:inputCells r="B3" val="15"/>
+    </x:scenario>
+    <x:scenario name="Expensive" locked="1" count="2" user="Jan Havlíček" comment="Created by Jan Havlíček on 12/14/2024">
+      <x:inputCells r="B2" val="50"/>
+      <x:inputCells r="B3" val="75"/>
+    </x:scenario>
+  </x:scenarios>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C103D15-3D13-4E6D-8F54-B3C22D3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538143E2-3B8F-4339-B8C8-D3C86837AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="9" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <x:workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="0" activeTab="11" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
@@ -22,19 +22,22 @@
     <x:sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
     <x:sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
     <x:sheet name="Scenario" sheetId="16" r:id="rId9"/>
-    <x:sheet name="Scenario PivotTable" sheetId="17" r:id="rId10"/>
+    <x:sheet name="Scenario - PT" sheetId="17" r:id="rId10"/>
+    <x:sheet name="Consolidate" sheetId="18" r:id="rId11"/>
+    <x:sheet name="Consolidate - PT" sheetId="19" r:id="rId12"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId15"/>
-    <x:pivotCache cacheId="1" r:id="rId14"/>
-    <x:pivotCache cacheId="2" r:id="rId11"/>
-    <x:pivotCache cacheId="3" r:id="rId12"/>
-    <x:pivotCache cacheId="4" r:id="rId13"/>
-    <x:pivotCache cacheId="5" r:id="rId16"/>
+    <x:pivotCache cacheId="0" r:id="rId17"/>
+    <x:pivotCache cacheId="1" r:id="rId16"/>
+    <x:pivotCache cacheId="2" r:id="rId13"/>
+    <x:pivotCache cacheId="3" r:id="rId14"/>
+    <x:pivotCache cacheId="4" r:id="rId15"/>
+    <x:pivotCache cacheId="5" r:id="rId18"/>
+    <x:pivotCache cacheId="6" r:id="rId19"/>
   </x:pivotCaches>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,6 +101,18 @@
   </x:si>
   <x:si>
     <x:t>(All)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muffin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Page1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Page2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -431,6 +446,67 @@
 </x:pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheDefinition xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy="Jan Havlíček" refreshedDate="45641.123992361114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{C4D000D4-C547-41E9-B0B9-2D56DCDF4F13}" mc:Ignorable="xr">
+  <x:cacheSource type="consolidation">
+    <x:consolidation autoPage="0">
+      <x:pages>
+        <x:page>
+          <x:pageItem name="Cakes"/>
+          <x:pageItem name="Taxes"/>
+        </x:page>
+        <x:page>
+          <x:pageItem name="Cakes"/>
+          <x:pageItem name="Tax1"/>
+        </x:page>
+      </x:pages>
+      <x:rangeSets>
+        <x:rangeSet i1="0" i2="0" ref="A1:B3" sheet="Consolidate"/>
+        <x:rangeSet i1="1" i2="1" ref="D1:E2" sheet="Consolidate"/>
+      </x:rangeSets>
+    </x:consolidation>
+  </x:cacheSource>
+  <x:cacheFields count="5">
+    <x:cacheField name="Row">
+      <x:sharedItems count="2">
+        <x:s v="Cake"/>
+        <x:s v="Muffin"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Column">
+      <x:sharedItems count="2">
+        <x:s v="Value"/>
+        <x:s v="Tax"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Value">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.21" maxValue="25" count="3">
+        <x:n v="25"/>
+        <x:n v="17"/>
+        <x:n v="1.21"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Page1">
+      <x:sharedItems count="2">
+        <x:s v="Cakes"/>
+        <x:s v="Taxes"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Page2">
+      <x:sharedItems count="2">
+        <x:s v="Cakes"/>
+        <x:s v="Tax1"/>
+      </x:sharedItems>
+    </x:cacheField>
+  </x:cacheFields>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </x:ext>
+  </x:extLst>
+</x:pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
   <r>
@@ -485,6 +561,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr"/>
 </file>
 
@@ -605,6 +707,84 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="$B$5" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
   <extLst>
@@ -953,7 +1133,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
@@ -966,6 +1146,108 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A9F178DE-BBB7-489C-9228-24C8800DF773}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D5" sqref="D5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:v>1.21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4A4D42AF-FE37-4EC3-9D02-CE3B6F12778F}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A4" sqref="A4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="15.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="5.777344" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.777344" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
